--- a/诚德行软件设计/需求文档.xlsx
+++ b/诚德行软件设计/需求文档.xlsx
@@ -469,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -483,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0">
+    <comment ref="B20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -500,7 +500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0">
+    <comment ref="B22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -531,7 +531,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="237">
   <si>
     <t>业务管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1437,11 +1437,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果有询价记录，则先展现已有询价记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询价人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应价人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认：业务员本人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认：配置的当日报价估价师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有询价记录，则先展现已有询价记录，再在这个基础上，去勘察或者发起新询价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起新询价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定此价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2974,10 +3010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I28"/>
+  <dimension ref="A2:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3085,97 +3121,208 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="F15" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="I15" s="6"/>
+      <c r="D15" s="9" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="F17" s="10" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="F18" s="10" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="F21" s="10" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>226</v>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>1</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>2</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <v>3</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C37" s="12" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/诚德行软件设计/需求文档.xlsx
+++ b/诚德行软件设计/需求文档.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="需求整理" sheetId="1" r:id="rId1"/>
     <sheet name="数据表设计" sheetId="2" r:id="rId2"/>
-    <sheet name="我的订单界面" sheetId="3" r:id="rId3"/>
+    <sheet name="发起业务界面" sheetId="3" r:id="rId3"/>
+    <sheet name="勘察现场界面" sheetId="4" r:id="rId4"/>
+    <sheet name="我的订单界面" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -21,7 +23,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -29,7 +31,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -39,11 +40,362 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-把已经确定完价格的分派给撰稿人（批量操作）。</t>
+业务表作为一个总控制，反应一笔业务进展情况，如果环节有时间，表示已完成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+与生成报告编号相关</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+厦门抵押、厦门二手房、咨询、法院等</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+物业类型供以后查询使用，但不规范</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+只允许保存一份</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对公、对私</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果是在建，要说明开发完成后的各用途单价是多少</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>住宅、办公、商场、店面、sohu、独栋别墅、双拼别墅、联排别墅、工业、酒店</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按法定填写</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">说明：
+面积、楼层等，
+租金
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+与计算勘察费相关
+一类
+二类
+三类
+四类
+岛内
+岛外</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+与勘察费、报告费、签字费等相关
+住宅、办公、商业、工作、在建、土地、法院、酒店、多套、拆迁、询价</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果填写成交总价，则必填面积</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果无法报价，说明需要的条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+以勘察估价师报价为完成时间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+以上传评估报告时间为准
+</t>
         </r>
       </text>
     </comment>
@@ -57,7 +409,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,6 +417,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -74,185 +427,29 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-业务表作为一个总控制，反应一笔业务进展情况，如果环节有时间，表示已完成</t>
+新业务，直接查勘</t>
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-与生成报告编号相关</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-厦门抵押、厦门二手房、咨询、法院等</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>住宅、办公、商场、店面、sohu、独栋别墅、双拼别墅、联排别墅、工业、酒店</t>
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-物业类型供以后查询使用，但不规范</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-只允许保存一份</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-对公、对私</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-如果是在建，要说明开发完成后的各用途单价是多少</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>住宅、办公、商场、店面、sohu、独栋别墅、双拼别墅、联排别墅、工业、酒店</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-按法定填写</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -269,66 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-与计算勘察费相关
-一类
-二类
-三类
-四类
-岛内
-岛外</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-与勘察费、报告费、签字费等相关
-住宅、办公、商业、工作、在建、土地、法院、酒店、多套、拆迁、询价</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -351,85 +489,6 @@
           </rPr>
           <t xml:space="preserve">
 如果填写成交总价，则必填面积</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-如果无法报价，说明需要的条件</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-以勘察估价师报价为完成时间</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-以上传评估报告时间为准
-</t>
         </r>
       </text>
     </comment>
@@ -443,7 +502,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -465,42 +524,63 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-新业务，直接查勘</t>
+指根据当前记录，复制并创建一条记录</t>
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>住宅、办公、商场、店面、sohu、独栋别墅、双拼别墅、联排别墅、工业、酒店</t>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对已确定价格的单子，可以列表中选择撰稿人，一键分派撰稿</t>
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">说明：
-面积、楼层等，
-租金
-</t>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对未确定价格的单子，如果有应价或勘察报价，一键提交给相应的业务员确定价格；如果没有则提交给当日报价估价师报价</t>
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0">
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -522,7 +602,118 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-如果填写成交总价，则必填面积</t>
+对于没有撰稿人的项目，分派撰稿人可在此选择撰稿人，批量分派撰稿</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+每条记录的最前面有选择方框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+与计算勘察费相关
+一类
+二类
+三类
+四类
+岛内
+岛外</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+与勘察费、报告费、签字费等相关
+住宅、办公、商业、工作、在建、土地、法院、酒店、多套、拆迁、询价</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+以勘察估价师报价为完成时间</t>
         </r>
       </text>
     </comment>
@@ -531,7 +722,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="268">
   <si>
     <t>业务管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1173,87 +1364,419 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>分派撰稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询价id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应价时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勘察完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估价报告id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交审核时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一审完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二审完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总审完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勘察现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建完现场勘察记录，自动要生成业务订单记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动显示缺哪些附件&lt;-"相关附件"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动显示现场报价、询价时的应价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待我处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知正稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格争议处置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勘察现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vvv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去勘察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址/小区必填其一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认住宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认抵押</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填总价时必填面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“去勘察”：如果有勘察估价师、勘察估价员会直接发给两个人，没有的话直接发给“派单员”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“去勘察”会直接生成查勘记录和相关的业务订单，如果从询价记录发起，自动生成，如果是新业务，业务员要填小区/客户电话，来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交询价会先查询已有的询价记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有询价记录，则提交给当日的报价估价师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询价人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应价人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认：业务员本人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认：配置的当日报价估价师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有询价记录，则先展现已有询价记录，再在这个基础上，去勘察或者发起新询价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起新询价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定此价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>发起业务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分派撰稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撰稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>询价id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应价时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>派单id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勘察完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>估价报告id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交审核时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一审完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二审完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总审完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从询价发起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接发起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勘察现场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分派查勘</t>
+    <t>取消业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勘察费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告费、签字费、审核费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例录入费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出正稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拟勘察时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房产区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源/联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拟勘察时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询价与勘察可能一对多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勘察估价师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勘察报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰稿人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在记录上双击可进入勘察记录的详细页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员确定价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请确定价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经有报价（应价或勘察报价）：交给业务员沟通价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有勘察估价师：由勘察估价师报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有勘察估价师：由当天报价估价师报价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1261,223 +1784,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采用复制创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合并业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆分业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建完现场勘察记录，自动要生成业务订单记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动显示缺哪些附件&lt;-"相关附件"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动显示现场报价、询价时的应价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待我处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知正稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撰稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格争议处置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勘察现场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vvv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去勘察</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>询价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址/小区必填其一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认住宅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认抵押</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填总价时必填面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“去勘察”：如果有勘察估价师、勘察估价员会直接发给两个人，没有的话直接发给“派单员”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“去勘察”会直接生成查勘记录和相关的业务订单，如果从询价记录发起，自动生成，如果是新业务，业务员要填小区/客户电话，来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>询价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交询价会先查询已有的询价记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果没有询价记录，则提交给当日的报价估价师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>询价人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应价人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认：业务员本人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认：配置的当日报价估价师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果有询价记录，则先展现已有询价记录，再在这个基础上，去勘察或者发起新询价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起新询价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定此价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物业类型</t>
+    <t>复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请确定价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1588,7 +1903,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1601,8 +1916,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1681,11 +2002,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1720,6 +2113,39 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2093,7 +2519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2117,132 +2543,134 @@
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>193</v>
-      </c>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="C21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -2366,7 +2794,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2376,7 +2803,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2394,7 +2821,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>51</v>
@@ -2423,7 +2850,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>37</v>
@@ -2452,7 +2879,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>26</v>
@@ -2467,7 +2894,7 @@
         <v>94</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>126</v>
@@ -2481,7 +2908,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>27</v>
@@ -2510,7 +2937,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>28</v>
@@ -2539,7 +2966,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -2554,7 +2981,7 @@
         <v>97</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>129</v>
@@ -2568,7 +2995,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>30</v>
@@ -2597,7 +3024,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>31</v>
@@ -2626,7 +3053,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>33</v>
@@ -2655,7 +3082,7 @@
     </row>
     <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>48</v>
@@ -2684,7 +3111,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>49</v>
@@ -2725,7 +3152,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>153</v>
@@ -2788,7 +3215,7 @@
         <v>104</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -2851,7 +3278,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -2869,7 +3296,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -2955,7 +3382,7 @@
     <row r="26" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="3" t="s">
@@ -2965,9 +3392,11 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="17" t="s">
+        <v>245</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3" t="s">
         <v>115</v>
@@ -3012,8 +3441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3023,16 +3452,16 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -3042,17 +3471,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3060,17 +3489,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -3078,54 +3507,54 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -3134,7 +3563,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="9" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I16" s="6"/>
     </row>
@@ -3151,7 +3580,7 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="10" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -3160,7 +3589,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="10" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -3183,7 +3612,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="10" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -3194,16 +3623,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="9" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="13" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C25" s="14"/>
     </row>
@@ -3212,23 +3641,23 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>29</v>
@@ -3237,16 +3666,16 @@
         <v>28</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
@@ -3256,20 +3685,20 @@
         <v>1</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -3277,20 +3706,20 @@
         <v>2</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -3298,25 +3727,25 @@
         <v>3</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C37" s="12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3328,4 +3757,411 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="H1" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="D2" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="D3" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="D4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="8"/>
+      <c r="D5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D13" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="4:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="21"/>
+    </row>
+    <row r="20" spans="4:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="4:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="N21" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="21"/>
+    </row>
+    <row r="22" spans="4:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="M22" s="26"/>
+    </row>
+    <row r="23" spans="4:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="4:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="21"/>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D30" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="D31" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="D33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="D34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="D35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="D38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="D39" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="D41" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D42" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="D43" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="N24:Q24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/诚德行软件设计/需求文档.xlsx
+++ b/诚德行软件设计/需求文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="需求整理" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="发起业务界面" sheetId="3" r:id="rId3"/>
     <sheet name="勘察现场界面" sheetId="4" r:id="rId4"/>
     <sheet name="我的订单界面" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -722,7 +723,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="270">
   <si>
     <t>业务管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1793,6 +1794,14 @@
   </si>
   <si>
     <t>申请确定价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有偿出让类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2108,12 +2117,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2129,6 +2132,21 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2137,15 +2155,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3394,7 +3403,7 @@
     </row>
     <row r="27" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="15" t="s">
         <v>245</v>
       </c>
       <c r="D27" s="1"/>
@@ -3543,10 +3552,10 @@
       <c r="F12" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
@@ -3631,10 +3640,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="24"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
@@ -3779,24 +3788,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="22" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>247</v>
       </c>
       <c r="B2" s="8"/>
@@ -3812,24 +3821,24 @@
       <c r="G2" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="17" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
+      <c r="A3" s="13"/>
       <c r="D3" s="3" t="s">
         <v>253</v>
       </c>
@@ -3855,7 +3864,7 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>244</v>
       </c>
       <c r="B4" s="8"/>
@@ -3884,7 +3893,7 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="8"/>
       <c r="D5" s="3" t="s">
         <v>255</v>
@@ -3911,7 +3920,7 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>239</v>
       </c>
       <c r="B6" s="8"/>
@@ -3926,7 +3935,7 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>240</v>
       </c>
       <c r="B7" s="8"/>
@@ -3941,7 +3950,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>241</v>
       </c>
       <c r="B8" s="8"/>
@@ -3956,7 +3965,7 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>242</v>
       </c>
       <c r="B9" s="8"/>
@@ -3971,7 +3980,7 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>243</v>
       </c>
       <c r="B10" s="8"/>
@@ -3986,7 +3995,7 @@
       <c r="L10" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="22" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3997,13 +4006,13 @@
     </row>
     <row r="18" spans="4:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="4:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="21"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="26"/>
     </row>
     <row r="20" spans="4:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
@@ -4012,21 +4021,21 @@
       <c r="F20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="24"/>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" spans="4:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-      <c r="N21" s="20" t="s">
+      <c r="J21" s="26"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="N21" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="21"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="26"/>
     </row>
     <row r="22" spans="4:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
@@ -4035,24 +4044,24 @@
       <c r="F22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="M22" s="26"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="4:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="N23" s="25"/>
+      <c r="N23" s="20"/>
     </row>
     <row r="24" spans="4:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="21"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="26"/>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D25" s="3"/>
@@ -4155,7 +4164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -4164,4 +4173,29 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/诚德行软件设计/需求文档.xlsx
+++ b/诚德行软件设计/需求文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="需求整理" sheetId="1" r:id="rId1"/>
@@ -723,7 +723,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="302">
   <si>
     <t>业务管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1802,6 +1802,134 @@
   </si>
   <si>
     <t>有偿出让类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估价报告id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰稿人1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗地四至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰稿人1费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与重要场所距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰稿人2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临街状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰稿人2费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅聚集度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签字估价师1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签字费1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签字估价师2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签字费2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通管制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车方便程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础设施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共服务设施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人文环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区位优劣度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告相关费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1932,7 +2060,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2083,11 +2211,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2156,6 +2299,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2529,16 +2676,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
@@ -2553,253 +2700,345 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>159</v>
       </c>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>230</v>
       </c>
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29" t="s">
         <v>176</v>
       </c>
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="29" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="29" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="28"/>
+      <c r="B26" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="29" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B27" s="29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B30" s="29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B31" s="29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
+      <c r="C31" s="29"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
+      <c r="C32" s="29"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+      <c r="C33" s="29"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="29" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B37" s="29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
+      <c r="C37" s="29"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+      <c r="C38" s="29"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B39" s="29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
+      <c r="C39" s="29"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
+      <c r="C40" s="29"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
+      <c r="C41" s="29"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
+      <c r="C42" s="29"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
+      <c r="C43" s="29"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+      <c r="C44" s="29"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B45" s="29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="K53" s="1"/>
-      <c r="M53" s="1"/>
+      <c r="C45" s="29"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K47" s="1"/>
+      <c r="M47" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A26"/>
+    <mergeCell ref="B7:B9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2808,11 +3047,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2826,9 +3065,11 @@
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>164</v>
       </c>
@@ -2856,8 +3097,14 @@
       <c r="I1" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>165</v>
       </c>
@@ -2885,8 +3132,14 @@
       <c r="I2" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>166</v>
       </c>
@@ -2914,8 +3167,14 @@
       <c r="I3" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>167</v>
       </c>
@@ -2943,8 +3202,14 @@
       <c r="I4" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>168</v>
       </c>
@@ -2972,8 +3237,14 @@
       <c r="I5" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>169</v>
       </c>
@@ -3001,8 +3272,14 @@
       <c r="I6" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>170</v>
       </c>
@@ -3030,8 +3307,14 @@
       <c r="I7" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>171</v>
       </c>
@@ -3059,8 +3342,14 @@
       <c r="I8" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>172</v>
       </c>
@@ -3088,8 +3377,14 @@
       <c r="I9" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="J9" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>173</v>
       </c>
@@ -3117,8 +3412,14 @@
       <c r="I10" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>174</v>
       </c>
@@ -3142,8 +3443,14 @@
       <c r="I11" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="J11" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>50</v>
       </c>
@@ -3166,8 +3473,14 @@
       <c r="I12" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
@@ -3188,8 +3501,11 @@
       <c r="I13" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K13" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
@@ -3208,8 +3524,11 @@
       <c r="I14" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="K14" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
         <v>35</v>
@@ -3231,8 +3550,11 @@
       <c r="I15" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K15" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
@@ -3251,8 +3573,11 @@
       <c r="I16" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K16" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
@@ -3271,9 +3596,14 @@
       <c r="I17" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="1"/>
+      <c r="K17" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>73</v>
       </c>
@@ -3289,8 +3619,11 @@
       <c r="I18" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K18" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
         <v>74</v>
@@ -3307,8 +3640,11 @@
       <c r="I19" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K19" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="3" t="s">
         <v>75</v>
@@ -3323,7 +3659,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="1"/>
       <c r="C21" s="3" t="s">
         <v>76</v>
@@ -3338,7 +3674,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="1"/>
       <c r="C22" s="3" t="s">
         <v>77</v>
@@ -3351,7 +3687,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
         <v>78</v>
@@ -3364,7 +3700,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
       <c r="C24" s="3" t="s">
         <v>79</v>
@@ -3377,7 +3713,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3388,7 +3724,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="4" t="s">
         <v>181</v>
@@ -3401,7 +3737,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
       <c r="C27" s="15" t="s">
         <v>245</v>
@@ -3414,7 +3750,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3425,7 +3761,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3436,13 +3772,14 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="F30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3772,7 +4109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -4179,7 +4516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/诚德行软件设计/需求文档.xlsx
+++ b/诚德行软件设计/需求文档.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="数据表设计" sheetId="2" r:id="rId1"/>
     <sheet name="发起业务界面" sheetId="3" r:id="rId2"/>
     <sheet name="勘察现场界面" sheetId="4" r:id="rId3"/>
     <sheet name="我的订单界面" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="需求整理" sheetId="1" r:id="rId6"/>
+    <sheet name="需求整理" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
@@ -77,6 +76,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="L4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电话不止一个</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C5" authorId="0">
       <text>
         <r>
@@ -394,6 +417,78 @@
           </rPr>
           <t xml:space="preserve">
 正常勘察、二次勘察（指补拍人头）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+客户经理、中介、理财公司、委托人、租户</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+所有非常规字段内容都写在这里</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否是一个有效的联系人</t>
         </r>
       </text>
     </comment>
@@ -799,7 +894,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="345">
   <si>
     <t>公告板</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1765,14 +1860,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>土地性质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有偿出让类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发起业务</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2065,10 +2152,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>企业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>职务</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2097,11 +2180,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>客户id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联的客户id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人跟进记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商机id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商机内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消业务原因</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2303,7 +2474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2950,11 +3121,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3146,6 +3328,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3204,48 +3434,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3549,11 +3737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3565,12 +3753,13 @@
     <col min="5" max="5" width="14.7265625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="16.453125" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="8" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>148</v>
       </c>
@@ -3596,13 +3785,25 @@
         <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="L1" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="M1" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="N1" s="78" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>149</v>
       </c>
@@ -3628,13 +3829,25 @@
         <v>43</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="94" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="N2" s="69" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>150</v>
       </c>
@@ -3659,18 +3872,33 @@
       <c r="H3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="70" t="s">
+        <v>303</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="69" t="s">
+        <v>334</v>
+      </c>
+      <c r="L3" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="M3" s="69" t="s">
+        <v>330</v>
+      </c>
+      <c r="N3" s="69" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="73" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -3688,24 +3916,36 @@
       <c r="H4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="70" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="94" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="L4" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="M4" s="69" t="s">
+        <v>331</v>
+      </c>
+      <c r="N4" s="69" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="72" t="s">
         <v>67</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -3720,24 +3960,33 @@
       <c r="H5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="70" t="s">
+        <v>305</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J5" s="94" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="69" t="s">
+        <v>324</v>
+      </c>
+      <c r="M5" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="N5" s="79" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="101" t="s">
-        <v>312</v>
-      </c>
-      <c r="D6" s="97" t="s">
+      <c r="C6" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="72" t="s">
         <v>68</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -3753,21 +4002,27 @@
         <v>122</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="94" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="77" t="s">
+        <v>314</v>
+      </c>
+      <c r="N6" s="79" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="99" t="s">
-        <v>313</v>
+      <c r="C7" s="74" t="s">
+        <v>311</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>69</v>
@@ -3784,14 +4039,15 @@
       <c r="H7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J7" s="102" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="77" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>155</v>
       </c>
@@ -3810,20 +4066,21 @@
       <c r="F8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="94" t="s">
-        <v>311</v>
+      <c r="G8" s="69" t="s">
+        <v>309</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J8" s="102" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="77" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>156</v>
       </c>
@@ -3848,14 +4105,15 @@
       <c r="H9" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J9" s="102" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="77" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -3877,17 +4135,18 @@
       <c r="G10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="95" t="s">
-        <v>305</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="I10" s="70"/>
+      <c r="J10" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J10" s="102" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="L10" s="77" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>158</v>
       </c>
@@ -3909,17 +4168,18 @@
       <c r="G11" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="95" t="s">
+      <c r="H11" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="70"/>
+      <c r="J11" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J11" s="102" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="77" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="28" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
@@ -3936,22 +4196,23 @@
         <v>111</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="95" t="s">
-        <v>307</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="70"/>
+      <c r="J12" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J12" s="102" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="77" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>75</v>
@@ -3963,17 +4224,19 @@
         <v>39</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="H13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J13" s="102" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="56" x14ac:dyDescent="0.25">
+      <c r="K13" s="77"/>
+      <c r="L13" s="77" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
@@ -3987,17 +4250,19 @@
         <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="1"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+      <c r="L14" s="77" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -4013,14 +4278,16 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="H15" s="1"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15" s="77" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -4036,11 +4303,15 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="1"/>
+      <c r="J16" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L16" s="77" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
@@ -4056,11 +4327,12 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="1"/>
+      <c r="J17" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
@@ -4076,11 +4348,12 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="1"/>
+      <c r="J18" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
         <v>57</v>
@@ -4094,11 +4367,12 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="1"/>
+      <c r="J19" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="3" t="s">
         <v>58</v>
@@ -4112,8 +4386,9 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="3" t="s">
         <v>59</v>
@@ -4127,8 +4402,9 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="3" t="s">
         <v>60</v>
@@ -4140,8 +4416,9 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
         <v>61</v>
@@ -4153,8 +4430,9 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" ht="28" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="3" t="s">
         <v>62</v>
@@ -4166,8 +4444,9 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="3" t="s">
         <v>63</v>
@@ -4179,8 +4458,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="3" t="s">
         <v>64</v>
@@ -4192,21 +4472,23 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4216,8 +4498,9 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" ht="42" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="4" t="s">
         <v>162</v>
@@ -4229,8 +4512,9 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" ht="28" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="15" t="s">
         <v>218</v>
@@ -4240,14 +4524,15 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4363,10 +4648,10 @@
       <c r="F12" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="90"/>
+      <c r="C14" s="81"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -4451,10 +4736,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="C25" s="90"/>
+      <c r="C25" s="81"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -4818,13 +5103,13 @@
     </row>
     <row r="18" spans="4:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="4:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L19" s="91" t="s">
+      <c r="L19" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="92"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="83"/>
     </row>
     <row r="20" spans="4:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="3" t="s">
@@ -4836,18 +5121,18 @@
       <c r="L20" s="19"/>
     </row>
     <row r="21" spans="4:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="91" t="s">
+      <c r="I21" s="82" t="s">
         <v>232</v>
       </c>
-      <c r="J21" s="92"/>
+      <c r="J21" s="83"/>
       <c r="K21" s="19"/>
       <c r="L21" s="20"/>
-      <c r="N21" s="91" t="s">
+      <c r="N21" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="92"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="83"/>
     </row>
     <row r="22" spans="4:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="3" t="s">
@@ -4868,12 +5153,12 @@
       <c r="D24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="91" t="s">
+      <c r="N24" s="82" t="s">
         <v>236</v>
       </c>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="92"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="83"/>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
@@ -4990,34 +5275,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -5042,17 +5302,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="A1" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
       <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>302</v>
+      <c r="A2" s="88" t="s">
+        <v>300</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>37</v>
@@ -5062,23 +5322,23 @@
       <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="31"/>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="31" t="s">
         <v>160</v>
       </c>
@@ -5087,21 +5347,21 @@
       <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="31"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="31"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="31"/>
       <c r="C8" s="32" t="s">
         <v>146</v>
@@ -5110,9 +5370,9 @@
       <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>147</v>
@@ -5121,7 +5381,7 @@
       <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="33"/>
       <c r="C10" s="32" t="s">
         <v>208</v>
@@ -5130,7 +5390,7 @@
       <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="33"/>
       <c r="C11" s="32" t="s">
         <v>169</v>
@@ -5139,7 +5399,7 @@
       <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="31" t="s">
         <v>166</v>
       </c>
@@ -5150,16 +5410,16 @@
       <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="31"/>
       <c r="C13" s="35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="31"/>
       <c r="C14" s="37" t="s">
         <v>167</v>
@@ -5167,43 +5427,43 @@
       <c r="D14" s="38"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="31"/>
       <c r="C15" s="40" t="s">
         <v>168</v>
       </c>
       <c r="D15" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="H15" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="G15" s="26" t="s">
+      <c r="I15" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="H15" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>250</v>
-      </c>
       <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
+      <c r="A16" s="88"/>
       <c r="B16" s="31"/>
       <c r="C16" s="40"/>
       <c r="D16" s="41"/>
@@ -5212,15 +5472,15 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="88"/>
       <c r="B17" s="31"/>
       <c r="C17" s="37" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="27"/>
@@ -5228,17 +5488,17 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
+      <c r="A18" s="88"/>
       <c r="B18" s="31"/>
       <c r="C18" s="37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="26"/>
@@ -5248,10 +5508,10 @@
       <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="31"/>
       <c r="C19" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="26"/>
@@ -5261,7 +5521,7 @@
       <c r="I19" s="26"/>
     </row>
     <row r="20" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
+      <c r="A20" s="88"/>
       <c r="B20" s="31"/>
       <c r="C20" s="37" t="s">
         <v>170</v>
@@ -5274,7 +5534,7 @@
       <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
+      <c r="A21" s="88"/>
       <c r="B21" s="31"/>
       <c r="C21" s="30" t="s">
         <v>171</v>
@@ -5283,7 +5543,7 @@
       <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
+      <c r="A22" s="88"/>
       <c r="B22" s="31"/>
       <c r="C22" s="30" t="s">
         <v>172</v>
@@ -5292,7 +5552,7 @@
       <c r="E22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
+      <c r="A23" s="88"/>
       <c r="B23" s="31"/>
       <c r="C23" s="30" t="s">
         <v>173</v>
@@ -5301,7 +5561,7 @@
       <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
+      <c r="A24" s="88"/>
       <c r="B24" s="31"/>
       <c r="C24" s="30" t="s">
         <v>210</v>
@@ -5310,66 +5570,66 @@
       <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="72"/>
+      <c r="A25" s="88"/>
       <c r="B25" s="31"/>
       <c r="C25" s="34"/>
       <c r="D25" s="30"/>
       <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
-      <c r="B26" s="75" t="s">
-        <v>245</v>
+      <c r="A26" s="88"/>
+      <c r="B26" s="91" t="s">
+        <v>243</v>
       </c>
       <c r="C26" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="F26" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="D26" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="E26" s="47" t="s">
+      <c r="G26" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="F26" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="G26" s="48" t="s">
+      <c r="H26" s="49" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="88"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="H26" s="49" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="50" t="s">
+      <c r="F27" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="E27" s="23" t="s">
+      <c r="G27" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="H27" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="G27" s="51" t="s">
+    </row>
+    <row r="28" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="88"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="H27" s="52" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="50" t="s">
-        <v>267</v>
-      </c>
       <c r="D28" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
@@ -5377,13 +5637,13 @@
       <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="72"/>
-      <c r="B29" s="77"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="53" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -5391,218 +5651,218 @@
       <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="72"/>
+      <c r="A30" s="88"/>
       <c r="B30" s="55"/>
       <c r="C30" s="56"/>
       <c r="D30" s="34"/>
       <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="82" t="s">
+      <c r="A31" s="89"/>
+      <c r="B31" s="98" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="57" t="s">
         <v>290</v>
-      </c>
-      <c r="C31" s="57" t="s">
-        <v>292</v>
       </c>
       <c r="D31" s="58"/>
       <c r="E31" s="23"/>
     </row>
     <row r="32" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="83"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="59" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D32" s="60"/>
       <c r="E32" s="23"/>
     </row>
     <row r="33" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="83"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D33" s="60"/>
       <c r="E33" s="23"/>
     </row>
     <row r="34" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="73"/>
-      <c r="B34" s="84"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="61" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D34" s="62"/>
       <c r="E34" s="23"/>
     </row>
     <row r="35" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="72"/>
+      <c r="A35" s="88"/>
       <c r="B35" s="23"/>
       <c r="C35" s="36"/>
       <c r="D35" s="46"/>
       <c r="E35" s="23"/>
     </row>
     <row r="36" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
-      <c r="B36" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="C36" s="85" t="s">
-        <v>295</v>
+      <c r="A36" s="88"/>
+      <c r="B36" s="94" t="s">
+        <v>299</v>
+      </c>
+      <c r="C36" s="101" t="s">
+        <v>293</v>
       </c>
       <c r="D36" s="63" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E36" s="23"/>
     </row>
     <row r="37" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="72"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="86"/>
+      <c r="A37" s="88"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="102"/>
       <c r="D37" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E37" s="23"/>
     </row>
     <row r="38" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="72"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="86"/>
+      <c r="A38" s="88"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="102"/>
       <c r="D38" s="30" t="s">
         <v>209</v>
       </c>
       <c r="E38" s="23"/>
     </row>
     <row r="39" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="72"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="86"/>
+      <c r="A39" s="88"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="102"/>
       <c r="D39" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="86"/>
+      <c r="A40" s="88"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="102"/>
       <c r="D40" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E40" s="23"/>
     </row>
     <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="86"/>
+      <c r="A41" s="88"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E41" s="23"/>
     </row>
     <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="72"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="86"/>
+      <c r="A42" s="88"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="102"/>
       <c r="D42" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E42" s="23"/>
     </row>
     <row r="43" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="72"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="87"/>
+      <c r="A43" s="88"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E43" s="23"/>
     </row>
     <row r="44" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="72"/>
-      <c r="B44" s="80"/>
+      <c r="A44" s="88"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="64" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E44" s="23"/>
     </row>
     <row r="45" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="72"/>
-      <c r="B45" s="80"/>
+      <c r="A45" s="88"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="31"/>
       <c r="D45" s="30"/>
       <c r="E45" s="23"/>
     </row>
     <row r="46" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="72"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="85" t="s">
-        <v>276</v>
+      <c r="A46" s="88"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="101" t="s">
+        <v>274</v>
       </c>
       <c r="D46" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="E46" s="23"/>
+    </row>
+    <row r="47" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="88"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="E46" s="23"/>
-    </row>
-    <row r="47" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="30" t="s">
-        <v>277</v>
-      </c>
       <c r="E47" s="23"/>
     </row>
     <row r="48" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="72"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="86"/>
+      <c r="A48" s="88"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="102"/>
       <c r="D48" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E48" s="23"/>
     </row>
     <row r="49" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="72"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="86"/>
+      <c r="A49" s="88"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="102"/>
       <c r="D49" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E49" s="23"/>
     </row>
     <row r="50" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="72"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="86"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="102"/>
       <c r="D50" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E50" s="23"/>
     </row>
     <row r="51" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="87"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="103"/>
       <c r="D51" s="63" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E51" s="23"/>
     </row>
     <row r="52" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="72"/>
-      <c r="B52" s="80"/>
+      <c r="A52" s="88"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="31"/>
       <c r="D52" s="63"/>
       <c r="E52" s="23"/>
     </row>
     <row r="53" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
-      <c r="B53" s="80"/>
-      <c r="C53" s="85" t="s">
-        <v>296</v>
+      <c r="A53" s="88"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="101" t="s">
+        <v>294</v>
       </c>
       <c r="D53" s="30" t="s">
         <v>6</v>
@@ -5610,26 +5870,26 @@
       <c r="E53" s="23"/>
     </row>
     <row r="54" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="72"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="86"/>
+      <c r="A54" s="88"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="102"/>
       <c r="D54" s="30" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="23"/>
     </row>
     <row r="55" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="87"/>
+      <c r="A55" s="88"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="103"/>
       <c r="D55" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E55" s="23"/>
     </row>
     <row r="56" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
-      <c r="B56" s="81"/>
+      <c r="A56" s="88"/>
+      <c r="B56" s="97"/>
       <c r="C56" s="31" t="s">
         <v>0</v>
       </c>
@@ -5637,25 +5897,25 @@
       <c r="E56" s="23"/>
     </row>
     <row r="57" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="72"/>
+      <c r="A57" s="88"/>
       <c r="B57" s="65"/>
       <c r="C57" s="59" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="23"/>
     </row>
     <row r="58" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="72"/>
+      <c r="A58" s="88"/>
       <c r="B58" s="66"/>
       <c r="C58" s="59" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="23"/>
     </row>
     <row r="59" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="72"/>
+      <c r="A59" s="88"/>
       <c r="B59" s="66"/>
       <c r="C59" s="30" t="s">
         <v>2</v>
@@ -5664,7 +5924,7 @@
       <c r="E59" s="23"/>
     </row>
     <row r="60" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="72"/>
+      <c r="A60" s="88"/>
       <c r="B60" s="66"/>
       <c r="C60" s="30" t="s">
         <v>11</v>
@@ -5673,56 +5933,56 @@
       <c r="E60" s="23"/>
     </row>
     <row r="61" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="72"/>
-      <c r="B61" s="88" t="s">
-        <v>299</v>
+      <c r="A61" s="88"/>
+      <c r="B61" s="104" t="s">
+        <v>297</v>
       </c>
       <c r="C61" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="69" t="s">
-        <v>298</v>
+      <c r="D61" s="85" t="s">
+        <v>296</v>
       </c>
       <c r="E61" s="23"/>
     </row>
     <row r="62" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="72"/>
-      <c r="B62" s="88"/>
+      <c r="A62" s="88"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="70"/>
+      <c r="D62" s="86"/>
       <c r="E62" s="23"/>
     </row>
     <row r="63" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="72"/>
-      <c r="B63" s="88"/>
+      <c r="A63" s="88"/>
+      <c r="B63" s="104"/>
       <c r="C63" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="70"/>
+      <c r="D63" s="86"/>
       <c r="E63" s="23"/>
     </row>
     <row r="64" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="72"/>
-      <c r="B64" s="88"/>
+      <c r="A64" s="88"/>
+      <c r="B64" s="104"/>
       <c r="C64" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="71"/>
+      <c r="D64" s="87"/>
       <c r="E64" s="23"/>
     </row>
     <row r="65" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="72"/>
+      <c r="A65" s="88"/>
       <c r="B65" s="67"/>
       <c r="C65" s="30"/>
       <c r="D65" s="46"/>
       <c r="E65" s="23"/>
     </row>
     <row r="66" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="72"/>
+      <c r="A66" s="88"/>
       <c r="B66" s="68" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C66" s="68" t="s">
         <v>5</v>
@@ -5731,14 +5991,14 @@
       <c r="E66" s="23"/>
     </row>
     <row r="67" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="72"/>
+      <c r="A67" s="88"/>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
       <c r="E67" s="23"/>
     </row>
     <row r="68" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="72"/>
+      <c r="A68" s="88"/>
       <c r="B68" s="31"/>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
